--- a/public/assets/basic_employee.xlsx
+++ b/public/assets/basic_employee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,94 +9,94 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="2316"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8868"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>emp_id</t>
-  </si>
-  <si>
-    <t>father_husband_name</t>
-  </si>
-  <si>
-    <t>father_husband_dob</t>
-  </si>
-  <si>
-    <t>mother_name</t>
-  </si>
-  <si>
-    <t>mother_dob</t>
-  </si>
-  <si>
-    <t>emergency_contact_no</t>
-  </si>
-  <si>
-    <t>emergency_contact_relation</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>date_of_joining</t>
-  </si>
-  <si>
-    <t>designation</t>
-  </si>
-  <si>
-    <t>nth_pm</t>
-  </si>
-  <si>
-    <t>pan_card_no</t>
-  </si>
-  <si>
-    <t>address_as_per_aadhar</t>
-  </si>
-  <si>
-    <t>present_address</t>
-  </si>
-  <si>
-    <t>nominee_name</t>
-  </si>
-  <si>
-    <t>marital_status</t>
-  </si>
-  <si>
-    <t>religion</t>
-  </si>
-  <si>
-    <t>spouse_name</t>
-  </si>
-  <si>
-    <t>spouse_dob</t>
-  </si>
-  <si>
-    <t>first_child_name</t>
-  </si>
-  <si>
-    <t>first_child_dob</t>
-  </si>
-  <si>
-    <t>second_child_name</t>
-  </si>
-  <si>
-    <t>second_child_dob</t>
+    <t>FATHER HUSBAND NAME</t>
+  </si>
+  <si>
+    <t>FATHER HUSBAND DOB</t>
+  </si>
+  <si>
+    <t>MOTHER NAME</t>
+  </si>
+  <si>
+    <t>MOTHER DOB</t>
+  </si>
+  <si>
+    <t>EMERGENCY CONTACT NO</t>
+  </si>
+  <si>
+    <t>EMERGENCY CONTACT RELATION</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>DATE OF JOINING</t>
+  </si>
+  <si>
+    <t>DESIGNATION</t>
+  </si>
+  <si>
+    <t>NTH PM</t>
+  </si>
+  <si>
+    <t>PAN CARD NO</t>
+  </si>
+  <si>
+    <t>ADDRESS AS PER AADHAR</t>
+  </si>
+  <si>
+    <t>PRESENT ADDRESS</t>
+  </si>
+  <si>
+    <t>NOMINEE NAME</t>
+  </si>
+  <si>
+    <t>MARITAL STATUS</t>
+  </si>
+  <si>
+    <t>RELIGION</t>
+  </si>
+  <si>
+    <t>SPOUSE NAME</t>
+  </si>
+  <si>
+    <t>SPOUSE DOB</t>
+  </si>
+  <si>
+    <t>FIRST CHILD NAME</t>
+  </si>
+  <si>
+    <t>FIRST CHILD DOB</t>
+  </si>
+  <si>
+    <t>SECOND CHILD NAME</t>
+  </si>
+  <si>
+    <t>SECOND CHILD DOB</t>
+  </si>
+  <si>
+    <t>EMP CODE</t>
   </si>
 </sst>
 </file>
@@ -467,89 +467,93 @@
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
